--- a/dataAnalysis/spreadsheets/RecommendedCorrelation.xlsx
+++ b/dataAnalysis/spreadsheets/RecommendedCorrelation.xlsx
@@ -15,13 +15,15 @@
     <sheet name="Pval_G" sheetId="7" r:id="rId9"/>
     <sheet name="Rho_C" sheetId="8" r:id="rId10"/>
     <sheet name="Pval_C" sheetId="9" r:id="rId11"/>
+    <sheet name="Rho_CG" sheetId="10" r:id="rId12"/>
+    <sheet name="Pval_CG" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="6">
   <si>
     <t>Row</t>
   </si>
@@ -36,6 +38,9 @@
   </si>
   <si>
     <t>Calories</t>
+  </si>
+  <si>
+    <t>BMI</t>
   </si>
 </sst>
 </file>
@@ -56,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -76,11 +81,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -94,6 +103,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,6 +119,280 @@
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.84968511906404609</v>
+      </c>
+      <c r="D2">
+        <v>0.78246180092465345</v>
+      </c>
+      <c r="E2">
+        <v>0.75802313541041821</v>
+      </c>
+      <c r="F2">
+        <v>0.38073215791696413</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.84968511906404609</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-0.85530743861095571</v>
+      </c>
+      <c r="E3">
+        <v>-0.54928224222186928</v>
+      </c>
+      <c r="F3">
+        <v>-0.41062505566534957</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.78246180092465345</v>
+      </c>
+      <c r="C4">
+        <v>-0.85530743861095571</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-0.71425135970541986</v>
+      </c>
+      <c r="F4">
+        <v>-0.38925105153442541</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.75802313541041821</v>
+      </c>
+      <c r="C5">
+        <v>-0.54928224222186928</v>
+      </c>
+      <c r="D5">
+        <v>-0.71425135970541986</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-0.28569356852692812</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.38073215791696413</v>
+      </c>
+      <c r="C6">
+        <v>-0.41062505566534957</v>
+      </c>
+      <c r="D6">
+        <v>-0.38925105153442541</v>
+      </c>
+      <c r="E6">
+        <v>-0.28569356852692812</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.068358738951585313</v>
+      </c>
+      <c r="D2">
+        <v>0.11774217370454802</v>
+      </c>
+      <c r="E2">
+        <v>0.13758362776769406</v>
+      </c>
+      <c r="F2">
+        <v>0.52721724605170217</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.068358738951585313</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.064616787549566707</v>
+      </c>
+      <c r="E3">
+        <v>0.33759358285959173</v>
+      </c>
+      <c r="F3">
+        <v>0.49226443591609892</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.11774217370454802</v>
+      </c>
+      <c r="C4">
+        <v>0.064616787549566707</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.17529045003438418</v>
+      </c>
+      <c r="F4">
+        <v>0.51720675006084749</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.13758362776769406</v>
+      </c>
+      <c r="C5">
+        <v>0.33759358285959173</v>
+      </c>
+      <c r="D5">
+        <v>0.17529045003438418</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.64125442193753468</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.52721724605170217</v>
+      </c>
+      <c r="C6">
+        <v>0.49226443591609892</v>
+      </c>
+      <c r="D6">
+        <v>0.51720675006084749</v>
+      </c>
+      <c r="E6">
+        <v>0.64125442193753468</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
@@ -154,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.30369334957395672</v>
+        <v>0.72013378679852924</v>
       </c>
     </row>
     <row r="3">
@@ -162,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.30369334957395672</v>
+        <v>0.72013378679852924</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -179,7 +466,7 @@
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="true"/>
     <col min="2" max="2" width="6.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -198,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.060173296302844084</v>
+        <v>0.043942430227524053</v>
       </c>
     </row>
     <row r="3">
@@ -209,10 +496,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.060173296302844084</v>
+        <v>0.043942430227524053</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -227,7 +514,7 @@
     <col min="1" max="1" width="6.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -252,10 +539,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.30369334957395677</v>
+        <v>0.54979415160497069</v>
       </c>
       <c r="D2">
-        <v>0.21787847183384779</v>
+        <v>0.45947229012478058</v>
       </c>
     </row>
     <row r="3">
@@ -263,13 +550,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.30369334957395677</v>
+        <v>0.54979415160497069</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.075782913838757571</v>
+        <v>0.17420586775969896</v>
       </c>
     </row>
     <row r="4">
@@ -277,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.21787847183384776</v>
+        <v>0.45947229012478058</v>
       </c>
       <c r="C4">
-        <v>-0.075782913838757571</v>
+        <v>0.17420586775969896</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -320,13 +607,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.060173296302844084</v>
+        <v>0.20105599132828034</v>
       </c>
       <c r="D2">
-        <v>0.1827110551653871</v>
+        <v>0.29963560425619196</v>
       </c>
     </row>
     <row r="3">
@@ -334,13 +621,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.060173296302844084</v>
+        <v>0.20105599132828034</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.64657413397596031</v>
+        <v>0.70872595954746398</v>
       </c>
     </row>
     <row r="4">
@@ -348,13 +635,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1827110551653871</v>
+        <v>0.29963560425619196</v>
       </c>
       <c r="C4">
-        <v>0.64657413397596031</v>
+        <v>0.70872595954746398</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -369,7 +656,7 @@
     <col min="1" max="1" width="6.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -394,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.35056597781847526</v>
+        <v>0.77779417876341361</v>
       </c>
       <c r="D2">
-        <v>-0.056354031280811241</v>
+        <v>0.49118618773282774</v>
       </c>
     </row>
     <row r="3">
@@ -405,13 +692,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.35056597781847526</v>
+        <v>0.77779417876341361</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.46671524157446181</v>
+        <v>-0.77241382698286709</v>
       </c>
     </row>
     <row r="4">
@@ -419,10 +706,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.056354031280811241</v>
+        <v>0.49118618773282774</v>
       </c>
       <c r="C4">
-        <v>-0.46671524157446181</v>
+        <v>-0.77241382698286709</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -440,7 +727,7 @@
     <col min="1" max="1" width="6.7109375" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.036064135468341495</v>
+        <v>0.039498896219271794</v>
       </c>
       <c r="D2">
-        <v>0.74408333661630222</v>
+        <v>0.26297393395023527</v>
       </c>
     </row>
     <row r="3">
@@ -476,13 +763,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.036064135468341495</v>
+        <v>0.039498896219271794</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0041123711935540262</v>
+        <v>0.041802829022008131</v>
       </c>
     </row>
     <row r="4">
@@ -490,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.74408333661630222</v>
+        <v>0.26297393395023527</v>
       </c>
       <c r="C4">
-        <v>0.0041123711935540262</v>
+        <v>0.041802829022008131</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
